--- a/MEDIA/202011030075應付帳款明細.xlsx
+++ b/MEDIA/202011030075應付帳款明細.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,7 +370,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)應付帳款明細(2020-10-27~2020-10-31)</t>
+          <t>森邦(股)應付帳款明細(2020-09-01~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -464,27 +464,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20001867</t>
+          <t>20000098</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20005666</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20201029</t>
+          <t>20200930</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100760</t>
+          <t>100438</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">海麟國際食品有限公司                              </t>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -499,122 +499,1079 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">302106-2                 </t>
+          <t xml:space="preserve">105001-3                 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">生-開背鳳尾蝦(包)/1kg                </t>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">生-開背鳳尾蝦(包)/1kg                </t>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12包/箱 約75隻                    </t>
+          <t xml:space="preserve">20條/箱.專機製作                    </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>361.9047</t>
+          <t>1.9047</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>18819</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>18819</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19760</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>18,819</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>19,760</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20005390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105002-3                 </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-400cc冷飲杯/2條(100個)          </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-400cc冷飲杯/2條(100個)          </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>38925</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>38925</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>40871</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20005390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-8                 </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR(聖誕)360cc飲料杯(箱)             </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR(聖誕)360cc飲料杯(箱)             </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(活動版)                         </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20005390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105002-4                 </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(活動)400cc冷飲杯/2條(100個)-飢餓30    </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(聖誕)400cc冷飲杯/2條(100個)         </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20005390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105008                   </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(空白)-熱飲外帶16oz杯(2條)/100個       </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(空白)-熱飲外帶16oz杯(2條)/100個       </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50/條*20                       </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>119.05</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20005394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-3                 </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.                             </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>25019</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>25019</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>26270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20005553</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-3                 </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.                             </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20005553</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-3                 </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.                             </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>27048</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27048</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>28400</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20005553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105002-3                 </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-400cc冷飲杯/2條(100個)          </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-400cc冷飲杯/2條(100個)          </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>38925</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>38925</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>40871</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20005589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-8                 </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR(聖誕)360cc飲料杯(箱)             </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR(聖誕)360cc飲料杯(箱)             </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(活動版)                         </t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>60858</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>60858</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>63901</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20000317</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20005597</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105001-3                 </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GR-360cc飲料杯(箱)/1000只          </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20條/箱.專機製作                    </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>676.2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20001732</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20005629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105002-4                 </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(活動)400cc冷飲杯/2條(100個)-飢餓30    </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(聖誕)400cc冷飲杯/2條(100個)         </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                              </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>68508</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>68508</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>71933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>266,336</t>
+        </is>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
+        <is>
+          <t>13,316</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>279,652</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>18,819</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>19,760</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>266,336</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,316</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>279,652</t>
         </is>
       </c>
     </row>
